--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="180">
   <si>
     <t>土地坐落</t>
   </si>
@@ -371,6 +371,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>億光</t>
   </si>
   <si>
@@ -390,6 +399,9 @@
   </si>
   <si>
     <t>4,600，000</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1918,13 +1930,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
@@ -1943,13 +1955,22 @@
       <c r="G1" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1966,13 +1987,22 @@
       <c r="G2" s="2">
         <v>12650000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1989,13 +2019,22 @@
       <c r="G3" s="2">
         <v>120000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2012,13 +2051,22 @@
       <c r="G4" s="2">
         <v>23808450</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2033,15 +2081,24 @@
         <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>125</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2058,13 +2115,22 @@
       <c r="G6" s="2">
         <v>6340000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2080,6 +2146,15 @@
       </c>
       <c r="G7" s="2">
         <v>2652600</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1764</v>
       </c>
     </row>
   </sheetData>
@@ -2097,13 +2172,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2111,10 +2186,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2125,10 +2200,10 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2139,10 +2214,10 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -2166,19 +2241,19 @@
         <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2186,22 +2261,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2">
         <v>255000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2209,22 +2284,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2">
         <v>4400000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2232,22 +2307,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E4" s="2">
         <v>3379000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2255,22 +2330,22 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2">
         <v>6300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2278,22 +2353,22 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2">
         <v>2000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2301,22 +2376,22 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E7" s="2">
         <v>5000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2324,22 +2399,22 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E8" s="2">
         <v>13185000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2357,22 +2432,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2383,19 +2458,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E2" s="2">
         <v>4800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2406,19 +2481,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2">
         <v>98500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2429,19 +2504,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2452,19 +2527,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2">
         <v>34000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2475,19 +2550,19 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E6" s="2">
         <v>10000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2498,19 +2573,19 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2">
         <v>6000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="182">
   <si>
     <t>土地坐落</t>
   </si>
@@ -371,6 +371,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -398,7 +401,10 @@
     <t>寶島新聲(未上市）</t>
   </si>
   <si>
-    <t>4,600，000</t>
+    <t>4600000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-30</t>
@@ -1930,13 +1936,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
@@ -1964,13 +1970,16 @@
       <c r="J1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1988,21 +1997,24 @@
         <v>12650000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1764</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2020,21 +2032,24 @@
         <v>120000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1764</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2052,21 +2067,24 @@
         <v>23808450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1764</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2081,24 +2099,27 @@
         <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1764</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2116,21 +2137,24 @@
         <v>6340000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1764</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2148,12 +2172,15 @@
         <v>2652600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>1764</v>
       </c>
     </row>
@@ -2172,13 +2199,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2186,10 +2213,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2200,10 +2227,10 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2214,10 +2241,10 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -2241,19 +2268,19 @@
         <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2261,22 +2288,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2">
         <v>255000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2284,22 +2311,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" s="2">
         <v>4400000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2307,22 +2334,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2">
         <v>3379000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2330,22 +2357,22 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E5" s="2">
         <v>6300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2353,22 +2380,22 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E6" s="2">
         <v>2000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2376,22 +2403,22 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E7" s="2">
         <v>5000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2399,22 +2426,22 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E8" s="2">
         <v>13185000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2432,22 +2459,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2458,19 +2485,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2">
         <v>4800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2481,19 +2508,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2">
         <v>98500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2504,19 +2531,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2527,19 +2554,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E5" s="2">
         <v>34000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2550,19 +2577,19 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E6" s="2">
         <v>10000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2573,19 +2600,19 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2">
         <v>6000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="187">
   <si>
     <t>土地坐落</t>
   </si>
@@ -374,6 +374,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -383,6 +386,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>億光</t>
   </si>
   <si>
@@ -407,7 +416,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp81521</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -1936,13 +1951,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>110</v>
       </c>
@@ -1973,13 +1988,22 @@
       <c r="K1" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1997,24 +2021,33 @@
         <v>12650000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1764</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -2032,24 +2065,33 @@
         <v>120000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1764</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -2067,24 +2109,33 @@
         <v>23808450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1764</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -2099,27 +2150,36 @@
         <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1764</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N5" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -2137,24 +2197,33 @@
         <v>6340000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1764</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -2172,16 +2241,25 @@
         <v>2652600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>1764</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N7" s="2">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2199,13 +2277,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2213,10 +2291,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2227,10 +2305,10 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -2241,10 +2319,10 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -2268,19 +2346,19 @@
         <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2288,22 +2366,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2">
         <v>255000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2311,22 +2389,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E3" s="2">
         <v>4400000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2334,22 +2412,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2">
         <v>3379000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2357,22 +2435,22 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2">
         <v>6300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2380,22 +2458,22 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2">
         <v>2000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2403,22 +2481,22 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2">
         <v>5000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2426,22 +2504,22 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E8" s="2">
         <v>13185000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2459,22 +2537,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2485,19 +2563,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E2" s="2">
         <v>4800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2508,19 +2586,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E3" s="2">
         <v>98500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2531,19 +2609,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2554,19 +2632,19 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E5" s="2">
         <v>34000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2577,19 +2655,19 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2">
         <v>10000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2600,19 +2678,19 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2">
         <v>6000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,9 +21,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="187">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="188">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市三重區富貴段02350000地號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區碧湖段三小段01540000地號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區碧湖段三小段01540006地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區懷生段三小段01980000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區懷生段三小段01980001地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03410000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00710000地號</t>
+  </si>
+  <si>
+    <t>20000分之438</t>
+  </si>
+  <si>
+    <t>10000分之69</t>
+  </si>
+  <si>
+    <t>10000分之102</t>
+  </si>
+  <si>
+    <t>10000分之625</t>
+  </si>
+  <si>
+    <t>10000分之358</t>
+  </si>
+  <si>
+    <t>鄭麗君</t>
+  </si>
+  <si>
+    <t>沈學榮</t>
+  </si>
+  <si>
+    <t>99年01月13曰</t>
+  </si>
+  <si>
+    <t>99年09月06闩</t>
+  </si>
+  <si>
+    <t>99年09月06日</t>
+  </si>
+  <si>
+    <t>98年10月02闩</t>
+  </si>
+  <si>
+    <t>98年10月02日</t>
+  </si>
+  <si>
+    <t>96年11月29日</t>
+  </si>
+  <si>
+    <t>]01年04月20闩</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>11550000(房地總價額）</t>
+  </si>
+  <si>
+    <t>45000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>45000000(與0154000一併購買）</t>
+  </si>
+  <si>
+    <t>55770000(房地總價額）</t>
+  </si>
+  <si>
+    <t>71000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp81521</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,139 +182,52 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市三重區富貴段0235-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區碧湖段三小段 0154-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區碧湖段三小段 0154-0006 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段 0198-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段 0198-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段 0341-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段 0071-0000 地號</t>
-  </si>
-  <si>
-    <t>20000分之 438</t>
-  </si>
-  <si>
-    <t>10000分之 69</t>
-  </si>
-  <si>
-    <t>10000分之 102</t>
-  </si>
-  <si>
-    <t>10000分之 625</t>
-  </si>
-  <si>
-    <t>10000分之 358</t>
-  </si>
-  <si>
-    <t>鄭麗君</t>
-  </si>
-  <si>
-    <t>沈學榮</t>
-  </si>
-  <si>
-    <t>99年01月 13曰</t>
-  </si>
-  <si>
-    <t>99年09月 06闩</t>
-  </si>
-  <si>
-    <t>99年09月 06日</t>
-  </si>
-  <si>
-    <t>98年10月 02闩</t>
-  </si>
-  <si>
-    <t>98年10月 02日</t>
-  </si>
-  <si>
-    <t>96年11月 29日</t>
-  </si>
-  <si>
-    <t>]01 年 04 月20闩</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>11，550,000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>45，000’000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>45,000,000(與 0154-000 一併 購買）</t>
-  </si>
-  <si>
-    <t>55,770,000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>71,000,000(房 地總價額）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>新北市三重區富貴段04369-000 建號</t>
-  </si>
-  <si>
-    <t>新北市三重區富貴段04387 - 000 建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區碧湖段三小段 01719-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區碧湖段三小段 03402-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區碧湖段三小段 03401-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段 02241-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段 03156-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段 03163-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段 03164-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段 00393-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段 00431-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段 00432-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段 00433-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段 00429-000 建號</t>
+    <t>新北市三重區富貴段04369000建號</t>
+  </si>
+  <si>
+    <t>新北市三重區富貴段04387000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區碧湖段三小段01719000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區碧湖段三小段03402000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區碧湖段三小段03401000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區懷生段三小段02241000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03156000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03163000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03164000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00393000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00431000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00432000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00433000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00429000建號</t>
   </si>
   <si>
     <t>2分之1</t>
   </si>
   <si>
-    <t>10000分之 336</t>
+    <t>10000分之336</t>
   </si>
   <si>
     <t>全部</t>
@@ -188,76 +239,67 @@
     <t>255分之1</t>
   </si>
   <si>
-    <t>10000分之 622</t>
+    <t>10000分之622</t>
   </si>
   <si>
     <t>49分之3</t>
   </si>
   <si>
-    <t>10000分之 407</t>
-  </si>
-  <si>
-    <t>10000分之 208</t>
-  </si>
-  <si>
-    <t>10000分之 385</t>
+    <t>10000分之407</t>
+  </si>
+  <si>
+    <t>10000分之208</t>
+  </si>
+  <si>
+    <t>10000分之385</t>
   </si>
   <si>
     <t>87分之1</t>
   </si>
   <si>
-    <t>99年01月 13日</t>
-  </si>
-  <si>
-    <t>96年1]月 29闩</t>
-  </si>
-  <si>
-    <t>101 年 04 月20曰</t>
-  </si>
-  <si>
-    <t>101 年 04 月20日</t>
-  </si>
-  <si>
-    <t>101 年 04 月20 H</t>
-  </si>
-  <si>
-    <t>11,550,000(房 地總價額，主建 物）</t>
-  </si>
-  <si>
-    <t>11’550’000(與 04369-000 建 號一併購買，停 車位）</t>
-  </si>
-  <si>
-    <t>45,000,000(房 地總價額，主建 物）</t>
-  </si>
-  <si>
-    <t>45，000，000(與 01719-000 建 號一併購買,公 設）</t>
-  </si>
-  <si>
-    <t>45,000,000(與 01719-000建 號一併購買，停 車位）</t>
-  </si>
-  <si>
-    <t>55，770,000(房 地總價額，主建 物）</t>
-  </si>
-  <si>
-    <t>55’770’000(與 03156-000建 號一併購買，公 設）</t>
-  </si>
-  <si>
-    <t>55，770，000(與 03156-000建 號一併購買，停 車位）</t>
-  </si>
-  <si>
-    <t>71,000,000(房 地總價額，主建 物）</t>
-  </si>
-  <si>
-    <t>71，000,000(與 00393-000建 號一併購買’公 設）</t>
-  </si>
-  <si>
-    <t>71，000’000(與 00393-000建 號一併購買，公 設）</t>
-  </si>
-  <si>
-    <t>71,000,000(與 00393-000建 號一併購買’公 設）</t>
-  </si>
-  <si>
-    <t>71，000,000(與 00393-000建 號一併購買，公 設）</t>
+    <t>99年01月13日</t>
+  </si>
+  <si>
+    <t>96年1]月29闩</t>
+  </si>
+  <si>
+    <t>101年04月20曰</t>
+  </si>
+  <si>
+    <t>101年04月20日</t>
+  </si>
+  <si>
+    <t>101年04月20H</t>
+  </si>
+  <si>
+    <t>11550000(房地總價額主建物）</t>
+  </si>
+  <si>
+    <t>11550000(與04369000建號一併購買停車位）</t>
+  </si>
+  <si>
+    <t>45000000(房地總價額主建物）</t>
+  </si>
+  <si>
+    <t>45000000(與01719000建號一併購買公設）</t>
+  </si>
+  <si>
+    <t>45000000(與01719000建號一併購買停車位）</t>
+  </si>
+  <si>
+    <t>55770000(房地總價額主建物）</t>
+  </si>
+  <si>
+    <t>55770000(與03156000建號一併購買公設）</t>
+  </si>
+  <si>
+    <t>55770000(與03156000建號一併購買停車位）</t>
+  </si>
+  <si>
+    <t>71000000(房地總價額主建物）</t>
+  </si>
+  <si>
+    <t>71000000(與00393000建號一併購買公設）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -269,10 +311,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>曰產 TEANA J31S</t>
-  </si>
-  <si>
-    <t>97年09月 17 H</t>
+    <t>曰產TEANAJ31S</t>
+  </si>
+  <si>
+    <t>97年09月17H</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -293,7 +335,7 @@
     <t>玉山商業銀行營業部</t>
   </si>
   <si>
-    <t>花旗（台灣)商業銀行營業 部</t>
+    <t>花旗（台灣)商業銀行營業部</t>
   </si>
   <si>
     <t>國泰世華商業銀行營業部</t>
@@ -302,19 +344,19 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司台 北建北</t>
-  </si>
-  <si>
-    <t>法國 La Banque Postal</t>
-  </si>
-  <si>
-    <t>法國 Credit Lyonnais</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台 北信維</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行新生分 行</t>
+    <t>中華郵政股份有限公司台北建北</t>
+  </si>
+  <si>
+    <t>法國LaBanquePostal</t>
+  </si>
+  <si>
+    <t>法國CreditLyonnais</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北信維</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行新生分行</t>
   </si>
   <si>
     <t>第一商業銀行汐止分行</t>
@@ -329,9 +371,6 @@
     <t>活期存款</t>
   </si>
   <si>
-    <t>活期存款 •</t>
-  </si>
-  <si>
     <t>新臺幣</t>
   </si>
   <si>
@@ -347,16 +386,10 @@
     <t>美金</t>
   </si>
   <si>
-    <t>4，787，841</t>
-  </si>
-  <si>
-    <t>5，120,842</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>4787841</t>
+  </si>
+  <si>
+    <t>5120842</t>
   </si>
   <si>
     <t>quantity</t>
@@ -371,27 +404,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>億光</t>
   </si>
   <si>
@@ -416,15 +428,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmp81521</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -443,7 +446,7 @@
     <t>康寧终身壽險</t>
   </si>
   <si>
-    <t>新二十年限期繳費特別分紅 增值終身壽險</t>
+    <t>新二十年限期繳費特別分紅增值終身壽險</t>
   </si>
   <si>
     <t>債權人</t>
@@ -461,61 +464,61 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>-般借款</t>
+    <t>般借款</t>
   </si>
   <si>
     <t>一般借款</t>
   </si>
   <si>
-    <t>居磁工業股份有限公司 基隆市安樂區大武崙工業區 武訓街</t>
-  </si>
-  <si>
-    <t>王鵬超 臺中市南屯區永春東一路</t>
-  </si>
-  <si>
-    <t>李筱貞 新北市永和區秀和里15鄰 林森路</t>
-  </si>
-  <si>
-    <t>陳進守 臺東縣卑南鄉美濃村</t>
-  </si>
-  <si>
-    <t>簡國書 臺北市文山區和興路</t>
-  </si>
-  <si>
-    <t>林義飢 臺北市北投區文林北路</t>
-  </si>
-  <si>
-    <t>Inter Technical Group, LLC</t>
-  </si>
-  <si>
-    <t>86年05月 起</t>
-  </si>
-  <si>
-    <t>99年02月 10日</t>
-  </si>
-  <si>
-    <t>99年05月 03日</t>
-  </si>
-  <si>
-    <t>99年07月 26 R</t>
-  </si>
-  <si>
-    <t>100年02月 15 R</t>
-  </si>
-  <si>
-    <t>100年07月 15日</t>
-  </si>
-  <si>
-    <t>98年03月 20 H</t>
+    <t>居磁工業股份有限公司基隆市安樂區大武崙工業區武訓街</t>
+  </si>
+  <si>
+    <t>王鵬超臺中市南屯區永春東一路</t>
+  </si>
+  <si>
+    <t>李筱貞新北市永和區秀和里15鄰林森路</t>
+  </si>
+  <si>
+    <t>陳進守臺東縣卑南鄉美濃村</t>
+  </si>
+  <si>
+    <t>簡國書臺北市文山區和興路</t>
+  </si>
+  <si>
+    <t>林義飢臺北市北投區文林北路</t>
+  </si>
+  <si>
+    <t>InterTechnicalGroupLLC</t>
+  </si>
+  <si>
+    <t>86年05月起</t>
+  </si>
+  <si>
+    <t>99年02月10日</t>
+  </si>
+  <si>
+    <t>99年05月03日</t>
+  </si>
+  <si>
+    <t>99年07月26R</t>
+  </si>
+  <si>
+    <t>100年02月15R</t>
+  </si>
+  <si>
+    <t>100年07月15日</t>
+  </si>
+  <si>
+    <t>98年03月20H</t>
   </si>
   <si>
     <t>股東借款</t>
   </si>
   <si>
-    <t>朋友創業借 款</t>
-  </si>
-  <si>
-    <t>朋友公司週 轉</t>
+    <t>朋友創業借款</t>
+  </si>
+  <si>
+    <t>朋友公司週轉</t>
   </si>
   <si>
     <t>投資人</t>
@@ -548,37 +551,37 @@
     <t>美台團網路股份有限公司</t>
   </si>
   <si>
-    <t>基隆市中正區信二路296-1 號】1樓</t>
-  </si>
-  <si>
-    <t>基隆市安樂區大武崙T業區 武訓街98號</t>
+    <t>基隆市中正區信二路2961號】1樓</t>
+  </si>
+  <si>
+    <t>基隆市安樂區大武崙T業區武訓街98號</t>
   </si>
   <si>
     <t>新北市新莊區中正路510號</t>
   </si>
   <si>
-    <t>臺北市大安區建國南路一段 42號2樓之5</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林路45號7 樓</t>
-  </si>
-  <si>
-    <t>77年12月 26日</t>
-  </si>
-  <si>
-    <t>85年01月 09日</t>
-  </si>
-  <si>
-    <t>99年02月 10曰</t>
-  </si>
-  <si>
-    <t>99年04月 15曰</t>
-  </si>
-  <si>
-    <t>100年02月 20闩</t>
-  </si>
-  <si>
-    <t>100年02月 15曰</t>
+    <t>臺北市大安區建國南路一段42號2樓之5</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林路45號7樓</t>
+  </si>
+  <si>
+    <t>77年12月26日</t>
+  </si>
+  <si>
+    <t>85年01月09日</t>
+  </si>
+  <si>
+    <t>99年02月10曰</t>
+  </si>
+  <si>
+    <t>99年04月15曰</t>
+  </si>
+  <si>
+    <t>100年02月20闩</t>
+  </si>
+  <si>
+    <t>100年02月15曰</t>
   </si>
   <si>
     <t>個人投資</t>
@@ -940,13 +943,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,187 +971,355 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1382.52</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>6618</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1486</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2">
         <v>2995744</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2">
         <v>92167</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>881</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>751</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="2">
         <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1166,25 +1337,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1192,25 +1363,25 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>203.56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1218,25 +1389,25 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2">
         <v>3178.07</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1244,25 +1415,25 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <v>233.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1270,25 +1441,25 @@
         <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>2516.17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1296,25 +1467,25 @@
         <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2">
         <v>741.61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1322,22 +1493,22 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2">
         <v>98.06</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2">
         <v>692500</v>
@@ -1348,25 +1519,25 @@
         <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2">
         <v>189.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1374,25 +1545,25 @@
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2">
         <v>1308.52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1400,25 +1571,25 @@
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2">
         <v>2142.26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1426,25 +1597,25 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2">
         <v>269.51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1452,25 +1623,25 @@
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2">
         <v>803.13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1478,25 +1649,25 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2">
         <v>299.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1504,25 +1675,25 @@
         <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2">
         <v>716.7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1530,25 +1701,25 @@
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2">
         <v>2.24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1566,22 +1737,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1589,19 +1760,19 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>2349</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
         <v>780000</v>
@@ -1622,22 +1793,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1645,16 +1816,16 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1666,16 +1837,16 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1687,16 +1858,16 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
         <v>14910</v>
@@ -1710,16 +1881,16 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1731,16 +1902,16 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1752,16 +1923,16 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1773,16 +1944,16 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F8" s="2">
         <v>362</v>
@@ -1796,16 +1967,16 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2">
         <v>1079</v>
@@ -1819,16 +1990,16 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1840,16 +2011,16 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1861,20 +2032,20 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1882,16 +2053,16 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1903,16 +2074,16 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2">
         <v>746738</v>
@@ -1926,19 +2097,19 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G15" s="2">
         <v>140283700</v>
@@ -1959,43 +2130,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2003,10 +2174,10 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>1265000</v>
@@ -2015,28 +2186,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2">
         <v>12650000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>1764</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2">
         <v>85</v>
@@ -2047,10 +2218,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>12000000</v>
@@ -2059,28 +2230,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2">
         <v>120000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>1764</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2">
         <v>86</v>
@@ -2091,10 +2262,10 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>2380845</v>
@@ -2103,28 +2274,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2">
         <v>23808450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>1764</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="N4" s="2">
         <v>87</v>
@@ -2135,10 +2306,10 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>460000</v>
@@ -2147,28 +2318,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>1764</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="N5" s="2">
         <v>88</v>
@@ -2179,10 +2350,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>634000</v>
@@ -2191,28 +2362,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G6" s="2">
         <v>6340000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2">
         <v>1764</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="N6" s="2">
         <v>89</v>
@@ -2223,10 +2394,10 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>265260</v>
@@ -2235,28 +2406,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G7" s="2">
         <v>2652600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
         <v>1764</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="N7" s="2">
         <v>90</v>
@@ -2277,13 +2448,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2291,13 +2462,13 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2305,13 +2476,13 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2319,13 +2490,13 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2343,22 +2514,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2366,22 +2537,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2">
         <v>255000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2389,22 +2560,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2">
         <v>4400000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2412,22 +2583,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2">
         <v>3379000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2435,22 +2606,22 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2">
         <v>6300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2458,22 +2629,22 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" s="2">
         <v>2000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2481,22 +2652,22 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2">
         <v>5000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2504,22 +2675,22 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2">
         <v>13185000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2537,22 +2708,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2560,22 +2731,22 @@
         <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2">
         <v>4800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2583,22 +2754,22 @@
         <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2">
         <v>98500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2606,22 +2777,22 @@
         <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2629,22 +2800,22 @@
         <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2">
         <v>34000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2652,22 +2823,22 @@
         <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2">
         <v>10000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2675,22 +2846,22 @@
         <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E7" s="2">
         <v>6000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="158">
   <si>
     <t>name</t>
   </si>
@@ -65,7 +65,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市三重區富貴段02350000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市内湖區碧湖段三小段01540000地號</t>
@@ -86,9 +89,6 @@
     <t>臺北市中正區城中段三小段00710000地號</t>
   </si>
   <si>
-    <t>20000分之438</t>
-  </si>
-  <si>
     <t>10000分之69</t>
   </si>
   <si>
@@ -107,159 +107,138 @@
     <t>沈學榮</t>
   </si>
   <si>
+    <t>99年09月06闩</t>
+  </si>
+  <si>
+    <t>99年09月06日</t>
+  </si>
+  <si>
+    <t>98年10月02闩</t>
+  </si>
+  <si>
+    <t>98年10月02日</t>
+  </si>
+  <si>
+    <t>96年11月29日</t>
+  </si>
+  <si>
+    <t>]01年04月20闩</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>45000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>45000000(與0154000一併購買）</t>
+  </si>
+  <si>
+    <t>55770000(房地總價額）</t>
+  </si>
+  <si>
+    <t>71000000(房地總價額）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp81521</t>
+  </si>
+  <si>
+    <t>新北市三重區富貴段04369000建號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>99年01月13日</t>
+  </si>
+  <si>
+    <t>11550000(房地總價額主建物）</t>
+  </si>
+  <si>
+    <t>新北市三重區富貴段04387000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區碧湖段三小段01719000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區碧湖段三小段03402000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區碧湖段三小段03401000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區懷生段三小段02241000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03156000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03163000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03164000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00393000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00431000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00432000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00433000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00429000建號</t>
+  </si>
+  <si>
+    <t>10000分之336</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>255分之4</t>
+  </si>
+  <si>
+    <t>255分之1</t>
+  </si>
+  <si>
+    <t>10000分之622</t>
+  </si>
+  <si>
+    <t>49分之3</t>
+  </si>
+  <si>
+    <t>10000分之407</t>
+  </si>
+  <si>
+    <t>10000分之208</t>
+  </si>
+  <si>
+    <t>10000分之385</t>
+  </si>
+  <si>
+    <t>87分之1</t>
+  </si>
+  <si>
     <t>99年01月13曰</t>
   </si>
   <si>
-    <t>99年09月06闩</t>
-  </si>
-  <si>
-    <t>99年09月06日</t>
-  </si>
-  <si>
-    <t>98年10月02闩</t>
-  </si>
-  <si>
-    <t>98年10月02日</t>
-  </si>
-  <si>
-    <t>96年11月29日</t>
-  </si>
-  <si>
-    <t>]01年04月20闩</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>11550000(房地總價額）</t>
-  </si>
-  <si>
-    <t>45000000(房地總價額）</t>
-  </si>
-  <si>
-    <t>45000000(與0154000一併購買）</t>
-  </si>
-  <si>
-    <t>55770000(房地總價額）</t>
-  </si>
-  <si>
-    <t>71000000(房地總價額）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmp81521</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>新北市三重區富貴段04369000建號</t>
-  </si>
-  <si>
-    <t>新北市三重區富貴段04387000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區碧湖段三小段01719000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區碧湖段三小段03402000建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區碧湖段三小段03401000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段02241000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段03156000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段03163000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段03164000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00393000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00431000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00432000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00433000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00429000建號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>10000分之336</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>255分之4</t>
-  </si>
-  <si>
-    <t>255分之1</t>
-  </si>
-  <si>
-    <t>10000分之622</t>
-  </si>
-  <si>
-    <t>49分之3</t>
-  </si>
-  <si>
-    <t>10000分之407</t>
-  </si>
-  <si>
-    <t>10000分之208</t>
-  </si>
-  <si>
-    <t>10000分之385</t>
-  </si>
-  <si>
-    <t>87分之1</t>
-  </si>
-  <si>
-    <t>99年01月13日</t>
-  </si>
-  <si>
     <t>96年1]月29闩</t>
   </si>
   <si>
@@ -272,9 +251,6 @@
     <t>101年04月20H</t>
   </si>
   <si>
-    <t>11550000(房地總價額主建物）</t>
-  </si>
-  <si>
     <t>11550000(與04369000建號一併購買停車位）</t>
   </si>
   <si>
@@ -302,39 +278,21 @@
     <t>71000000(與00393000建號一併購買公設）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>曰產TEANAJ31S</t>
   </si>
   <si>
     <t>97年09月17H</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>玉山商業銀行營業部</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>花旗（台灣)商業銀行營業部</t>
   </si>
   <si>
@@ -368,12 +326,6 @@
     <t>香港上海匯豐銀行香港</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>澳幣</t>
   </si>
   <si>
@@ -401,12 +353,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>億光</t>
-  </si>
-  <si>
     <t>友達</t>
   </si>
   <si>
@@ -428,15 +374,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
@@ -449,30 +386,21 @@
     <t>新二十年限期繳費特別分紅增值終身壽險</t>
   </si>
   <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>般借款</t>
   </si>
   <si>
+    <t>居磁工業股份有限公司基隆市安樂區大武崙工業區武訓街</t>
+  </si>
+  <si>
+    <t>86年05月起</t>
+  </si>
+  <si>
+    <t>股東借款</t>
+  </si>
+  <si>
     <t>一般借款</t>
   </si>
   <si>
-    <t>居磁工業股份有限公司基隆市安樂區大武崙工業區武訓街</t>
-  </si>
-  <si>
     <t>王鵬超臺中市南屯區永春東一路</t>
   </si>
   <si>
@@ -491,9 +419,6 @@
     <t>InterTechnicalGroupLLC</t>
   </si>
   <si>
-    <t>86年05月起</t>
-  </si>
-  <si>
     <t>99年02月10日</t>
   </si>
   <si>
@@ -512,30 +437,24 @@
     <t>98年03月20H</t>
   </si>
   <si>
-    <t>股東借款</t>
-  </si>
-  <si>
     <t>朋友創業借款</t>
   </si>
   <si>
     <t>朋友公司週轉</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>元基材料有限公司</t>
   </si>
   <si>
+    <t>基隆市中正區信二路2961號】1樓</t>
+  </si>
+  <si>
+    <t>77年12月26日</t>
+  </si>
+  <si>
+    <t>個人投資</t>
+  </si>
+  <si>
     <t>居磁工業股份有限公司</t>
   </si>
   <si>
@@ -551,9 +470,6 @@
     <t>美台團網路股份有限公司</t>
   </si>
   <si>
-    <t>基隆市中正區信二路2961號】1樓</t>
-  </si>
-  <si>
     <t>基隆市安樂區大武崙T業區武訓街98號</t>
   </si>
   <si>
@@ -566,9 +482,6 @@
     <t>臺北市中山區吉林路45號7樓</t>
   </si>
   <si>
-    <t>77年12月26日</t>
-  </si>
-  <si>
     <t>85年01月09日</t>
   </si>
   <si>
@@ -582,9 +495,6 @@
   </si>
   <si>
     <t>100年02月15曰</t>
-  </si>
-  <si>
-    <t>個人投資</t>
   </si>
 </sst>
 </file>
@@ -943,13 +853,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,19 +902,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1382.52</v>
+        <v>6618</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
@@ -1013,19 +929,19 @@
         <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>26</v>
@@ -1034,21 +950,27 @@
         <v>1764</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0069</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>45.6642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>6618</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1060,19 +982,19 @@
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>26</v>
@@ -1081,27 +1003,33 @@
         <v>1764</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0069</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.0207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>1486</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>30</v>
@@ -1109,17 +1037,17 @@
       <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
+      <c r="H4" s="2">
+        <v>2995744</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>26</v>
@@ -1128,21 +1056,27 @@
         <v>1764</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0102</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>15.1572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1486</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -1154,19 +1088,19 @@
         <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2">
-        <v>2995744</v>
+        <v>92167</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>26</v>
@@ -1175,24 +1109,30 @@
         <v>1764</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0102</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.3672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>36</v>
+        <v>881</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>27</v>
@@ -1201,19 +1141,19 @@
         <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2">
-        <v>92167</v>
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>26</v>
@@ -1222,24 +1162,30 @@
         <v>1764</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>55.0625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>881</v>
+        <v>751</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
@@ -1248,19 +1194,19 @@
         <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>26</v>
@@ -1269,57 +1215,16 @@
         <v>1764</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>751</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1764</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" s="2">
-        <v>20</v>
+      <c r="P7" s="2">
+        <v>0.0358</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>26.8858</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1234,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1337,389 +1242,363 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1">
+        <v>203.56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
-        <v>203.56</v>
+        <v>3178.07</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
-        <v>3178.07</v>
+        <v>233.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
-        <v>233.5</v>
+        <v>2516.17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2">
+        <v>741.61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2516.17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2">
-        <v>741.61</v>
+        <v>98.06</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>87</v>
+      <c r="H6" s="2">
+        <v>692500</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
-        <v>98.06</v>
+        <v>189.12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="2">
-        <v>692500</v>
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
+        <v>33</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1308.52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2">
-        <v>189.12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2">
-        <v>1308.52</v>
+        <v>2142.26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2">
+        <v>269.51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2142.26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2">
-        <v>269.51</v>
+        <v>803.13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2">
-        <v>803.13</v>
+        <v>299.5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2">
-        <v>299.5</v>
+        <v>716.7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2">
-        <v>716.7</v>
+        <v>2.24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2.24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1608,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2349</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1">
+        <v>780000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1737,381 +1649,302 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>958744</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2349</v>
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2">
-        <v>780000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>958744</v>
+        <v>675243</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>14910</v>
+      </c>
       <c r="G3" s="2">
-        <v>675243</v>
+        <v>458815</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2">
-        <v>14910</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>458815</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>610000</v>
+        <v>741722</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>741722</v>
+        <v>13186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>362</v>
+      </c>
       <c r="G7" s="2">
-        <v>13186</v>
+        <v>12748</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2">
-        <v>362</v>
+        <v>1079</v>
       </c>
       <c r="G8" s="2">
-        <v>12748</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1079</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>38000</v>
+        <v>3262064</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>3262064</v>
+        <v>18243328</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>18243328</v>
+      <c r="G11" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>122</v>
+      <c r="G12" s="2">
+        <v>1640797</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>746738</v>
+      </c>
       <c r="G13" s="2">
-        <v>1640797</v>
+        <v>2777800</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="2">
-        <v>746738</v>
+      <c r="F14" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G14" s="2">
-        <v>2777800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>76</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="2">
         <v>140283700</v>
       </c>
     </row>
@@ -2122,7 +1955,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2136,16 +1969,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -2171,34 +2004,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="2">
-        <v>1265000</v>
+        <v>12000000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="2">
+        <v>120000000</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="2">
-        <v>12650000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>26</v>
@@ -2207,42 +2040,42 @@
         <v>1764</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D3" s="2">
-        <v>12000000</v>
+        <v>2380845</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="2">
+        <v>23808450</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="2">
-        <v>120000000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>26</v>
@@ -2251,42 +2084,42 @@
         <v>1764</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N3" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>2380845</v>
+        <v>460000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="2">
-        <v>23808450</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>26</v>
@@ -2295,42 +2128,42 @@
         <v>1764</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>460000</v>
+        <v>634000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6340000</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>26</v>
@@ -2339,42 +2172,42 @@
         <v>1764</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>634000</v>
+        <v>265260</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2652600</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="2">
-        <v>6340000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>26</v>
@@ -2383,53 +2216,9 @@
         <v>1764</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N6" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>90</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2">
-        <v>265260</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2652600</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1764</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="2">
         <v>90</v>
       </c>
     </row>
@@ -2440,7 +2229,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2448,24 +2237,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>27</v>
@@ -2473,29 +2262,15 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>116</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2505,200 +2280,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="2">
-        <v>255000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>122</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4400000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>124</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3379000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6300000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>126</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>127</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>128</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="2">
-        <v>13185000</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2708,160 +2289,308 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>122</v>
+      </c>
+      <c r="E1" s="1">
+        <v>255000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4400000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4800000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2">
-        <v>98500000</v>
+        <v>3379000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2">
-        <v>3000000</v>
+        <v>6300000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2">
-        <v>34000000</v>
+        <v>2000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="E6" s="2">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="2">
+        <v>13185000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4800000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="2">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>139</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="2">
+        <v>98500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>140</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>141</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="2">
+        <v>34000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>142</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>143</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="2">
         <v>6000000</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>187</v>
+      <c r="F6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="162">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市三重區富貴段02350000地號</t>
+  </si>
+  <si>
     <t>臺北市内湖區碧湖段三小段01540000地號</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
     <t>臺北市中正區城中段三小段00710000地號</t>
   </si>
   <si>
+    <t>20000分之438</t>
+  </si>
+  <si>
     <t>10000分之69</t>
   </si>
   <si>
@@ -107,6 +113,9 @@
     <t>沈學榮</t>
   </si>
   <si>
+    <t>99年01月13曰</t>
+  </si>
+  <si>
     <t>99年09月06闩</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t>贈與</t>
   </si>
   <si>
+    <t>11550000(房地總價額）</t>
+  </si>
+  <si>
     <t>45000000(房地總價額）</t>
   </si>
   <si>
@@ -158,99 +170,96 @@
     <t>新北市三重區富貴段04369000建號</t>
   </si>
   <si>
+    <t>新北市三重區富貴段04387000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區碧湖段三小段01719000建號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區碧湖段三小段03402000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區碧湖段三小段03401000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區懷生段三小段02241000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03156000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03163000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區大安段一小段03164000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00393000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00431000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00432000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00433000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區城中段三小段00429000建號</t>
+  </si>
+  <si>
     <t>2分之1</t>
   </si>
   <si>
+    <t>10000分之336</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>255分之4</t>
+  </si>
+  <si>
+    <t>255分之1</t>
+  </si>
+  <si>
+    <t>10000分之622</t>
+  </si>
+  <si>
+    <t>49分之3</t>
+  </si>
+  <si>
+    <t>10000分之407</t>
+  </si>
+  <si>
+    <t>10000分之208</t>
+  </si>
+  <si>
+    <t>10000分之385</t>
+  </si>
+  <si>
+    <t>87分之1</t>
+  </si>
+  <si>
     <t>99年01月13日</t>
   </si>
   <si>
+    <t>96年1]月29闩</t>
+  </si>
+  <si>
+    <t>101年04月20曰</t>
+  </si>
+  <si>
+    <t>101年04月20日</t>
+  </si>
+  <si>
+    <t>101年04月20H</t>
+  </si>
+  <si>
     <t>11550000(房地總價額主建物）</t>
   </si>
   <si>
-    <t>新北市三重區富貴段04387000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區碧湖段三小段01719000建號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區碧湖段三小段03402000建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區碧湖段三小段03401000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區懷生段三小段02241000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段03156000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段03163000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區大安段一小段03164000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00393000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00431000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00432000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00433000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區城中段三小段00429000建號</t>
-  </si>
-  <si>
-    <t>10000分之336</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>255分之4</t>
-  </si>
-  <si>
-    <t>255分之1</t>
-  </si>
-  <si>
-    <t>10000分之622</t>
-  </si>
-  <si>
-    <t>49分之3</t>
-  </si>
-  <si>
-    <t>10000分之407</t>
-  </si>
-  <si>
-    <t>10000分之208</t>
-  </si>
-  <si>
-    <t>10000分之385</t>
-  </si>
-  <si>
-    <t>87分之1</t>
-  </si>
-  <si>
-    <t>99年01月13曰</t>
-  </si>
-  <si>
-    <t>96年1]月29闩</t>
-  </si>
-  <si>
-    <t>101年04月20曰</t>
-  </si>
-  <si>
-    <t>101年04月20日</t>
-  </si>
-  <si>
-    <t>101年04月20H</t>
-  </si>
-  <si>
     <t>11550000(與04369000建號一併購買停車位）</t>
   </si>
   <si>
@@ -351,6 +360,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>億光</t>
   </si>
   <si>
     <t>友達</t>
@@ -853,7 +865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -911,319 +923,372 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>6618</v>
+        <v>1382.52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>1764</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0069</v>
+        <v>0.0219</v>
       </c>
       <c r="Q2" s="2">
-        <v>45.6642</v>
+        <v>30.277188</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>6618</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>1764</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>0.0069</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.0207</v>
+        <v>45.6642</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1486</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2995744</v>
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2">
         <v>1764</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0102</v>
+        <v>0.0069</v>
       </c>
       <c r="Q4" s="2">
-        <v>15.1572</v>
+        <v>0.0207</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>36</v>
+        <v>1486</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2">
-        <v>92167</v>
+        <v>2995744</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2">
         <v>1764</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>0.0102</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.3672</v>
+        <v>15.1572</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>881</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="H6" s="2">
+        <v>92167</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2">
         <v>1764</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0625</v>
+        <v>0.0102</v>
       </c>
       <c r="Q6" s="2">
-        <v>55.0625</v>
+        <v>0.3672</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>751</v>
+        <v>881</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2">
         <v>1764</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0625</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>55.0625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>751</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="2">
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
         <v>20</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>0.0358</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>26.8858</v>
       </c>
     </row>
@@ -1234,371 +1299,802 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1">
-        <v>203.56</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="2">
-        <v>3178.07</v>
+        <v>203.56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>101.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
         <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="2">
-        <v>233.5</v>
+        <v>3178.07</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="2">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="P3" s="2">
+        <v>0.0336</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>106.783152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="2">
-        <v>2516.17</v>
+        <v>233.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>233.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="2">
-        <v>741.61</v>
+        <v>2516.17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>29</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0156862745098039</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>39.4693333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="2">
-        <v>98.06</v>
+        <v>741.61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2">
+        <v>30</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00392156862745098</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2.90827450980392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2">
-        <v>692500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="2">
-        <v>189.12</v>
+        <v>98.06</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2">
+        <v>692500</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="2">
+        <v>31</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>98.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2">
-        <v>1308.52</v>
+        <v>189.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
         <v>32</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>189.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="2">
-        <v>2142.26</v>
+        <v>1308.52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.0622</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>81.389944</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
         <v>34</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="2">
-        <v>269.51</v>
+        <v>2142.26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="2">
         <v>34</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="P10" s="2">
+        <v>0.0612244897959184</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>131.158775510204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="2">
-        <v>803.13</v>
+        <v>269.51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2">
+        <v>35</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>269.51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="2">
-        <v>299.5</v>
+        <v>803.13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="2">
+        <v>36</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0407</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>32.687391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="2">
-        <v>716.7</v>
+        <v>299.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="2">
+        <v>37</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0208</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>6.2296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="2">
-        <v>2.24</v>
+        <v>716.7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="2">
+        <v>38</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0385</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>27.59295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1764</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2">
+        <v>39</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0114942528735632</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.0257471264367816</v>
       </c>
     </row>
   </sheetData>
@@ -1608,29 +2104,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1">
         <v>2349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2349</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2">
         <v>780000</v>
       </c>
     </row>
@@ -1641,7 +2160,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1649,16 +2168,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1667,284 +2186,305 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>675243</v>
+        <v>958744</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14910</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>458815</v>
+        <v>675243</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F4" s="2">
+        <v>14910</v>
+      </c>
       <c r="G4" s="2">
-        <v>610000</v>
+        <v>458815</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>741722</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>13186</v>
+        <v>741722</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2">
-        <v>362</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>12748</v>
+        <v>13186</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
-        <v>1079</v>
+        <v>362</v>
       </c>
       <c r="G8" s="2">
-        <v>38000</v>
+        <v>12748</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1079</v>
+      </c>
       <c r="G9" s="2">
-        <v>3262064</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>18243328</v>
+        <v>3262064</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>106</v>
+      <c r="G11" s="2">
+        <v>18243328</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1640797</v>
+      <c r="G12" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2">
-        <v>746738</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>2777800</v>
+        <v>1640797</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
+        <v>75</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2">
+        <v>746738</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2777800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>76</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="B15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="2">
         <v>140283700</v>
       </c>
     </row>
@@ -1955,7 +2495,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1969,13 +2509,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2004,221 +2544,265 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2">
-        <v>12000000</v>
+        <v>1265000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2">
-        <v>120000000</v>
+        <v>12650000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2">
         <v>1764</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
-        <v>2380845</v>
+        <v>12000000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2">
-        <v>23808450</v>
+        <v>120000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2">
         <v>1764</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2">
-        <v>460000</v>
+        <v>2380845</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
+      </c>
+      <c r="G4" s="2">
+        <v>23808450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2">
         <v>1764</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
-        <v>634000</v>
+        <v>460000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6340000</v>
+        <v>92</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2">
         <v>1764</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2">
-        <v>265260</v>
+        <v>634000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>2652600</v>
+        <v>6340000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
         <v>1764</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>90</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2">
+        <v>265260</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2652600</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="2">
         <v>90</v>
       </c>
     </row>
@@ -2229,7 +2813,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2237,41 +2821,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <v>115</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>116</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
+      <c r="B4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2280,6 +2878,200 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1">
+        <v>255000000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="2">
+        <v>255000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4400000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3379000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6300000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>126</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>127</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>128</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="2">
+        <v>13185000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2289,308 +3081,160 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1">
-        <v>255000000</v>
+        <v>4800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2">
-        <v>4400000</v>
+        <v>4800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2">
-        <v>3379000</v>
+        <v>98500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2">
-        <v>6300000</v>
+        <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="E5" s="2">
-        <v>2000000</v>
+        <v>34000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="E6" s="2">
-        <v>5000000</v>
+        <v>10000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2">
-        <v>13185000</v>
+        <v>6000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4800000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>139</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="2">
-        <v>98500000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>140</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>141</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E4" s="2">
-        <v>34000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>142</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>143</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6000000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="163">
   <si>
     <t>name</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>71000000(與00393000建號一併購買公設）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>曰產TEANAJ31S</t>
@@ -2104,38 +2107,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1">
-        <v>2349</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1">
-        <v>780000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2">
         <v>2349</v>
@@ -2144,13 +2168,34 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>780000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2168,13 +2213,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -2189,13 +2234,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -2210,13 +2255,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -2231,13 +2276,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -2254,13 +2299,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
@@ -2275,13 +2320,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
@@ -2296,13 +2341,13 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -2317,13 +2362,13 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -2340,13 +2385,13 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -2363,13 +2408,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
@@ -2384,13 +2429,13 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
@@ -2405,20 +2450,20 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2426,13 +2471,13 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -2447,13 +2492,13 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -2470,19 +2515,19 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="2">
         <v>140283700</v>
@@ -2509,13 +2554,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2547,7 +2592,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2559,13 +2604,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="2">
         <v>12650000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2591,7 +2636,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -2603,13 +2648,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G3" s="2">
         <v>120000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2635,7 +2680,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -2647,13 +2692,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G4" s="2">
         <v>23808450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>45</v>
@@ -2679,7 +2724,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -2691,13 +2736,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>45</v>
@@ -2723,7 +2768,7 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2735,13 +2780,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G6" s="2">
         <v>6340000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>45</v>
@@ -2767,7 +2812,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -2779,13 +2824,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2">
         <v>2652600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>45</v>
@@ -2821,10 +2866,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
@@ -2835,10 +2880,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2849,10 +2894,10 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2863,10 +2908,10 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2887,22 +2932,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1">
         <v>255000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2910,22 +2955,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
         <v>255000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2933,22 +2978,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2">
         <v>4400000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2956,22 +3001,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2">
         <v>3379000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2979,22 +3024,22 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2">
         <v>6300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3002,22 +3047,22 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2">
         <v>2000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3025,22 +3070,22 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2">
         <v>5000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3048,22 +3093,22 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2">
         <v>13185000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3084,19 +3129,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1">
         <v>4800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3107,19 +3152,19 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2">
         <v>4800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3130,19 +3175,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2">
         <v>98500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3153,19 +3198,19 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3176,19 +3221,19 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2">
         <v>34000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3199,19 +3244,19 @@
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E6" s="2">
         <v>10000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3222,19 +3267,19 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2">
         <v>6000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="165">
   <si>
     <t>name</t>
   </si>
@@ -287,6 +287,9 @@
     <t>71000000(與00393000建號一併購買公設）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -294,6 +297,9 @@
   </si>
   <si>
     <t>97年09月17H</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>玉山商業銀行營業部</t>
@@ -1384,7 +1390,7 @@
         <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>45</v>
@@ -1437,7 +1443,7 @@
         <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>45</v>
@@ -1490,7 +1496,7 @@
         <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>45</v>
@@ -1543,7 +1549,7 @@
         <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>45</v>
@@ -1596,7 +1602,7 @@
         <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>45</v>
@@ -1649,7 +1655,7 @@
         <v>692500</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>45</v>
@@ -1702,7 +1708,7 @@
         <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>45</v>
@@ -1755,7 +1761,7 @@
         <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>45</v>
@@ -1808,7 +1814,7 @@
         <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>45</v>
@@ -1861,7 +1867,7 @@
         <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>45</v>
@@ -1914,7 +1920,7 @@
         <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>45</v>
@@ -1967,7 +1973,7 @@
         <v>87</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>45</v>
@@ -2020,7 +2026,7 @@
         <v>87</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>45</v>
@@ -2073,7 +2079,7 @@
         <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>45</v>
@@ -2118,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2159,7 +2165,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2">
         <v>2349</v>
@@ -2168,7 +2174,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>37</v>
@@ -2177,7 +2183,7 @@
         <v>780000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2213,13 +2219,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
@@ -2234,13 +2240,13 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
@@ -2255,13 +2261,13 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -2276,13 +2282,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
@@ -2299,13 +2305,13 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
@@ -2320,13 +2326,13 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
@@ -2341,13 +2347,13 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -2362,13 +2368,13 @@
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -2385,13 +2391,13 @@
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -2408,13 +2414,13 @@
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
@@ -2429,13 +2435,13 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
@@ -2450,20 +2456,20 @@
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2471,13 +2477,13 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
@@ -2492,13 +2498,13 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -2515,19 +2521,19 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G15" s="2">
         <v>140283700</v>
@@ -2554,13 +2560,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2592,7 +2598,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2604,13 +2610,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2">
         <v>12650000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2636,7 +2642,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -2648,13 +2654,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2">
         <v>120000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2680,7 +2686,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -2692,13 +2698,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G4" s="2">
         <v>23808450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>45</v>
@@ -2724,7 +2730,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -2736,13 +2742,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>45</v>
@@ -2768,7 +2774,7 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2780,13 +2786,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2">
         <v>6340000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>45</v>
@@ -2812,7 +2818,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -2824,13 +2830,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G7" s="2">
         <v>2652600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>45</v>
@@ -2866,10 +2872,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
@@ -2880,10 +2886,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2894,10 +2900,10 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2908,10 +2914,10 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2932,22 +2938,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1">
         <v>255000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2955,22 +2961,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>255000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2978,22 +2984,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2">
         <v>4400000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3001,22 +3007,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2">
         <v>3379000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3024,22 +3030,22 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2">
         <v>6300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3047,22 +3053,22 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2">
         <v>2000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3070,22 +3076,22 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E7" s="2">
         <v>5000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3093,22 +3099,22 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E8" s="2">
         <v>13185000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3129,19 +3135,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1">
         <v>4800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3152,19 +3158,19 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2">
         <v>4800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3175,19 +3181,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2">
         <v>98500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3198,19 +3204,19 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3221,19 +3227,19 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E5" s="2">
         <v>34000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3244,19 +3250,19 @@
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E6" s="2">
         <v>10000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3267,19 +3273,19 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E7" s="2">
         <v>6000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="166">
   <si>
     <t>name</t>
   </si>
@@ -302,48 +302,57 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>玉山商業銀行營業部</t>
   </si>
   <si>
+    <t>花旗（台灣)商業銀行營業部</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行營業部</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北建北</t>
+  </si>
+  <si>
+    <t>法國LaBanquePostal</t>
+  </si>
+  <si>
+    <t>法國CreditLyonnais</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北信維</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行新生分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行汐止分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行大安分行</t>
+  </si>
+  <si>
+    <t>香港上海匯豐銀行香港</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>花旗（台灣)商業銀行營業部</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行營業部</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北建北</t>
-  </si>
-  <si>
-    <t>法國LaBanquePostal</t>
-  </si>
-  <si>
-    <t>法國CreditLyonnais</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北信維</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行新生分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行汐止分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行大安分行</t>
-  </si>
-  <si>
-    <t>香港上海匯豐銀行香港</t>
-  </si>
-  <si>
     <t>澳幣</t>
   </si>
   <si>
@@ -356,19 +365,13 @@
     <t>美金</t>
   </si>
   <si>
-    <t>4787841</t>
-  </si>
-  <si>
-    <t>5120842</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>億光</t>
@@ -2211,13 +2214,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
@@ -2228,315 +2231,605 @@
         <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>958744</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>958744</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>675243</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="2">
-        <v>14910</v>
-      </c>
-      <c r="G4" s="2">
         <v>458815</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>610000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>741722</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>13186</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="2">
-        <v>362</v>
-      </c>
-      <c r="G8" s="2">
         <v>12748</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="2">
-        <v>1079</v>
-      </c>
-      <c r="G9" s="2">
         <v>38000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>3262064</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>18243328</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>73</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>5120842</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>114</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>1640797</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="2">
-        <v>746738</v>
-      </c>
-      <c r="G14" s="2">
         <v>2777800</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>140283700</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1764</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2560,13 +2853,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2598,7 +2891,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2610,13 +2903,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2">
         <v>12650000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>45</v>
@@ -2642,7 +2935,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -2654,13 +2947,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2">
         <v>120000000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>45</v>
@@ -2686,7 +2979,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -2698,13 +2991,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2">
         <v>23808450</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>45</v>
@@ -2730,7 +3023,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -2742,13 +3035,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>45</v>
@@ -2774,7 +3067,7 @@
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2786,13 +3079,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G6" s="2">
         <v>6340000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>45</v>
@@ -2818,7 +3111,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -2830,13 +3123,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G7" s="2">
         <v>2652600</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>45</v>
@@ -2872,10 +3165,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
@@ -2886,10 +3179,10 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -2900,10 +3193,10 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -2914,10 +3207,10 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -2938,22 +3231,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1">
         <v>255000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2961,22 +3254,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" s="2">
         <v>255000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2984,22 +3277,22 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2">
         <v>4400000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3007,22 +3300,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="2">
         <v>3379000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3030,22 +3323,22 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2">
         <v>6300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3053,22 +3346,22 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2">
         <v>2000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3076,22 +3369,22 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2">
         <v>5000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3099,22 +3392,22 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2">
         <v>13185000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3135,19 +3428,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1">
         <v>4800000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3158,19 +3451,19 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2">
         <v>4800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3181,19 +3474,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2">
         <v>98500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3204,19 +3497,19 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3227,19 +3520,19 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2">
         <v>34000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3250,19 +3543,19 @@
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2">
         <v>10000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3273,19 +3566,19 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E7" s="2">
         <v>6000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
+++ b/legislator/property/output/normal/鄭麗君_2012-04-30_財產申報表_tmp81521.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="173">
   <si>
     <t>name</t>
   </si>
@@ -398,6 +398,9 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
@@ -410,115 +413,133 @@
     <t>新二十年限期繳費特別分紅增值終身壽險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>般借款</t>
   </si>
   <si>
+    <t>一般借款</t>
+  </si>
+  <si>
     <t>居磁工業股份有限公司基隆市安樂區大武崙工業區武訓街</t>
   </si>
   <si>
+    <t>王鵬超臺中市南屯區永春東一路</t>
+  </si>
+  <si>
+    <t>李筱貞新北市永和區秀和里15鄰林森路</t>
+  </si>
+  <si>
+    <t>陳進守臺東縣卑南鄉美濃村</t>
+  </si>
+  <si>
+    <t>簡國書臺北市文山區和興路</t>
+  </si>
+  <si>
+    <t>林義飢臺北市北投區文林北路</t>
+  </si>
+  <si>
+    <t>InterTechnicalGroupLLC</t>
+  </si>
+  <si>
     <t>86年05月起</t>
   </si>
   <si>
+    <t>99年02月10日</t>
+  </si>
+  <si>
+    <t>99年05月03日</t>
+  </si>
+  <si>
+    <t>99年07月26R</t>
+  </si>
+  <si>
+    <t>100年02月15R</t>
+  </si>
+  <si>
+    <t>100年07月15日</t>
+  </si>
+  <si>
+    <t>98年03月20H</t>
+  </si>
+  <si>
     <t>股東借款</t>
   </si>
   <si>
-    <t>一般借款</t>
-  </si>
-  <si>
-    <t>王鵬超臺中市南屯區永春東一路</t>
-  </si>
-  <si>
-    <t>李筱貞新北市永和區秀和里15鄰林森路</t>
-  </si>
-  <si>
-    <t>陳進守臺東縣卑南鄉美濃村</t>
-  </si>
-  <si>
-    <t>簡國書臺北市文山區和興路</t>
-  </si>
-  <si>
-    <t>林義飢臺北市北投區文林北路</t>
-  </si>
-  <si>
-    <t>InterTechnicalGroupLLC</t>
-  </si>
-  <si>
-    <t>99年02月10日</t>
-  </si>
-  <si>
-    <t>99年05月03日</t>
-  </si>
-  <si>
-    <t>99年07月26R</t>
-  </si>
-  <si>
-    <t>100年02月15R</t>
-  </si>
-  <si>
-    <t>100年07月15日</t>
-  </si>
-  <si>
-    <t>98年03月20H</t>
-  </si>
-  <si>
     <t>朋友創業借款</t>
   </si>
   <si>
     <t>朋友公司週轉</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>元基材料有限公司</t>
   </si>
   <si>
+    <t>居磁工業股份有限公司</t>
+  </si>
+  <si>
+    <t>光原社會企業股份有限公司</t>
+  </si>
+  <si>
+    <t>慕哲社會企業股份有限公司</t>
+  </si>
+  <si>
+    <t>觀微科技股份有限公司</t>
+  </si>
+  <si>
+    <t>美台團網路股份有限公司</t>
+  </si>
+  <si>
     <t>基隆市中正區信二路2961號】1樓</t>
   </si>
   <si>
+    <t>基隆市安樂區大武崙T業區武訓街98號</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路510號</t>
+  </si>
+  <si>
+    <t>臺北市大安區建國南路一段42號2樓之5</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林路45號7樓</t>
+  </si>
+  <si>
     <t>77年12月26日</t>
   </si>
   <si>
+    <t>85年01月09日</t>
+  </si>
+  <si>
+    <t>99年02月10曰</t>
+  </si>
+  <si>
+    <t>99年04月15曰</t>
+  </si>
+  <si>
+    <t>100年02月20闩</t>
+  </si>
+  <si>
+    <t>100年02月15曰</t>
+  </si>
+  <si>
     <t>個人投資</t>
   </si>
   <si>
-    <t>居磁工業股份有限公司</t>
-  </si>
-  <si>
-    <t>光原社會企業股份有限公司</t>
-  </si>
-  <si>
-    <t>慕哲社會企業股份有限公司</t>
-  </si>
-  <si>
-    <t>觀微科技股份有限公司</t>
-  </si>
-  <si>
-    <t>美台團網路股份有限公司</t>
-  </si>
-  <si>
-    <t>基隆市安樂區大武崙T業區武訓街98號</t>
-  </si>
-  <si>
-    <t>新北市新莊區中正路510號</t>
-  </si>
-  <si>
-    <t>臺北市大安區建國南路一段42號2樓之5</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林路45號7樓</t>
-  </si>
-  <si>
-    <t>85年01月09日</t>
-  </si>
-  <si>
-    <t>99年02月10曰</t>
-  </si>
-  <si>
-    <t>99年04月15曰</t>
-  </si>
-  <si>
-    <t>100年02月20闩</t>
-  </si>
-  <si>
-    <t>100年02月15曰</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3157,63 +3178,147 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1764</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1764</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1764</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3223,191 +3328,359 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="1">
-        <v>255000000</v>
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2">
         <v>255000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>149</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2">
         <v>4400000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>150</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2">
         <v>3379000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>150</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2">
         <v>6300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>150</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2">
         <v>2000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>150</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2">
         <v>5000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>150</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2">
         <v>13185000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="2">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3417,33 +3690,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4800000</v>
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>138</v>
       </c>
@@ -3451,22 +3745,43 @@
         <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2">
         <v>4800000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>171</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>139</v>
       </c>
@@ -3474,22 +3789,43 @@
         <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2">
         <v>98500000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>171</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>140</v>
       </c>
@@ -3497,22 +3833,43 @@
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>171</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>141</v>
       </c>
@@ -3520,22 +3877,43 @@
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E5" s="2">
         <v>34000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>171</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>142</v>
       </c>
@@ -3543,22 +3921,43 @@
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2">
         <v>10000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>171</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>143</v>
       </c>
@@ -3566,19 +3965,40 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E7" s="2">
         <v>6000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>151</v>
+        <v>171</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1764</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="2">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
